--- a/src/test/java/testdata/Test.xlsx
+++ b/src/test/java/testdata/Test.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbuanan\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbuanan\eclipse-workspace\SimpleTestFramework\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{089A7540-FCA3-498E-95A5-A5891F168A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB19D230-59B5-41F6-8539-3178FBFAABF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>Admin</t>
+    <t>Test</t>
   </si>
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>admin124</t>
-  </si>
-  <si>
-    <t>admin125</t>
-  </si>
-  <si>
-    <t>admin126</t>
-  </si>
-  <si>
-    <t>admin127</t>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -386,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
